--- a/biology/Zoologie/Agriotes_pilosellus/Agriotes_pilosellus.xlsx
+++ b/biology/Zoologie/Agriotes_pilosellus/Agriotes_pilosellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriotes pilosellus est une espèce d'insectes de l'ordre des coléoptères et de la famille des Elateridae que l'on rencontre en Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taupin mesure de 15 à 18 millimètres. Son tégument est recouvert d'une pilosité dense grise couchée et courte[1]. Il est de couleur brun cendré. Le pronotum est plus long que large et un peu élargi en avant. Le 2e article antennaire est plus long que le 3e[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taupin mesure de 15 à 18 millimètres. Son tégument est recouvert d'une pilosité dense grise couchée et courte. Il est de couleur brun cendré. Le pronotum est plus long que large et un peu élargi en avant. Le 2e article antennaire est plus long que le 3e.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (17 août 2014)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (17 août 2014) : 
 Agriotes buyssoni Méquignon, 1927 nec Pic, 1895
 Agriotes elongatus (Marsham, 1802)
 Agriotes humerosignatus Buysson, 1926
